--- a/Copia de lista_articulos.xlsx
+++ b/Copia de lista_articulos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosdavid/ironhackt/modulo 2/lab/Poryecto-Final-Marzo-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66344B6-6CFD-F341-9011-7BA9D085089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CDD02-30D5-F841-815F-DDECD940B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47660" yWindow="2100" windowWidth="20580" windowHeight="15600" activeTab="6" xr2:uid="{660EE1AC-3D79-4295-B900-C51DF7AE590D}"/>
+    <workbookView xWindow="10840" yWindow="500" windowWidth="16920" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{660EE1AC-3D79-4295-B900-C51DF7AE590D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId7"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId8"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId9"/>
+    <sheet name="Hoja10" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja4!$B$2:$B$1000</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="580">
   <si>
     <t xml:space="preserve"> 'PISA PAPEL DE VIDRIO',</t>
   </si>
@@ -1431,13 +1434,367 @@
   </si>
   <si>
     <t>banderines f1</t>
+  </si>
+  <si>
+    <t>bolígrafo</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>termo</t>
+  </si>
+  <si>
+    <t>mochila</t>
+  </si>
+  <si>
+    <t>libreta</t>
+  </si>
+  <si>
+    <t>cilindro</t>
+  </si>
+  <si>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>llavero</t>
+  </si>
+  <si>
+    <t>porta</t>
+  </si>
+  <si>
+    <t>pelota</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>cubrebocas</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>antiestrés</t>
+  </si>
+  <si>
+    <t>vaso</t>
+  </si>
+  <si>
+    <t>gorra</t>
+  </si>
+  <si>
+    <t>playera</t>
+  </si>
+  <si>
+    <t>tarjeta</t>
+  </si>
+  <si>
+    <t>cinta</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>lonchera</t>
+  </si>
+  <si>
+    <t>bocina</t>
+  </si>
+  <si>
+    <t>pluma</t>
+  </si>
+  <si>
+    <t>mouse_pad</t>
+  </si>
+  <si>
+    <t>espejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">articulos recomenndados </t>
+  </si>
+  <si>
+    <t>AGENCIA MOSTACHO</t>
+  </si>
+  <si>
+    <t>perdido</t>
+  </si>
+  <si>
+    <t>NORMA MARTINEZ</t>
+  </si>
+  <si>
+    <t>ALINA OLVERA</t>
+  </si>
+  <si>
+    <t>ALPURA</t>
+  </si>
+  <si>
+    <t>JESSICA OSORIO</t>
+  </si>
+  <si>
+    <t>ALPURA UNION FINANCIERA</t>
+  </si>
+  <si>
+    <t>AMERICAN TOWER</t>
+  </si>
+  <si>
+    <t>CARLOS ACOSTA</t>
+  </si>
+  <si>
+    <t>ATLAS COPCO</t>
+  </si>
+  <si>
+    <t>CRISTIAN HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CASA DE LA AMISTAD</t>
+  </si>
+  <si>
+    <t>ADRIAN GUEVARA</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA AMPAR</t>
+  </si>
+  <si>
+    <t>CREACIONES LIBRES</t>
+  </si>
+  <si>
+    <t>CYVSA</t>
+  </si>
+  <si>
+    <t>DERMOGALENIC</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>YANET FLORES</t>
+  </si>
+  <si>
+    <t>FERRERO DE MÉXICO</t>
+  </si>
+  <si>
+    <t>FIFOMI</t>
+  </si>
+  <si>
+    <t>HITCHINER</t>
+  </si>
+  <si>
+    <t>HOTEL AZUL IXTAPA</t>
+  </si>
+  <si>
+    <t>INFO DF</t>
+  </si>
+  <si>
+    <t>INFODF</t>
+  </si>
+  <si>
+    <t>INTERCAM</t>
+  </si>
+  <si>
+    <t>IPS MEXICO</t>
+  </si>
+  <si>
+    <t>JR GRUPO</t>
+  </si>
+  <si>
+    <t>LA SALLE PACHUCA</t>
+  </si>
+  <si>
+    <t>LAGRIET</t>
+  </si>
+  <si>
+    <t>MEDICAL GROUP</t>
+  </si>
+  <si>
+    <t>MÉXICO GRAN HOTEL</t>
+  </si>
+  <si>
+    <t>NAVITUR</t>
+  </si>
+  <si>
+    <t>PANALPINA</t>
+  </si>
+  <si>
+    <t>PAPALOTE</t>
+  </si>
+  <si>
+    <t>PATRIARE</t>
+  </si>
+  <si>
+    <t>PROSUMEX</t>
+  </si>
+  <si>
+    <t>ROTOPLAS</t>
+  </si>
+  <si>
+    <t>Sergio Zamora</t>
+  </si>
+  <si>
+    <t>TELEVIA</t>
+  </si>
+  <si>
+    <t>TURNER</t>
+  </si>
+  <si>
+    <t>UNIDEP</t>
+  </si>
+  <si>
+    <t>UNIV. UTEL</t>
+  </si>
+  <si>
+    <t>VIMAR</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Estatus 19-21</t>
+  </si>
+  <si>
+    <t>Estatus 2022</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>NUKS</t>
+  </si>
+  <si>
+    <t>SGM</t>
+  </si>
+  <si>
+    <t>DSV</t>
+  </si>
+  <si>
+    <t>G500</t>
+  </si>
+  <si>
+    <t>ANDRE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>QUIMICA SONS</t>
+  </si>
+  <si>
+    <t>ALTECH CORP</t>
+  </si>
+  <si>
+    <t>UAM</t>
+  </si>
+  <si>
+    <t>SISOLUCIONES</t>
+  </si>
+  <si>
+    <t>RUSSELL</t>
+  </si>
+  <si>
+    <t>IMAGEN LATENTE</t>
+  </si>
+  <si>
+    <t>KFSPOT</t>
+  </si>
+  <si>
+    <t>HOSPITAL H+</t>
+  </si>
+  <si>
+    <t>COLEGIO ATID</t>
+  </si>
+  <si>
+    <t>CIUDAD MADERAS</t>
+  </si>
+  <si>
+    <t>ARMANDO PIZAÑA</t>
+  </si>
+  <si>
+    <t>XPRESSO EN CREATIVIDAD</t>
+  </si>
+  <si>
+    <t>alcancías</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>soporte</t>
+  </si>
+  <si>
+    <t>chamarra</t>
+  </si>
+  <si>
+    <t>sombrilla</t>
+  </si>
+  <si>
+    <t>toalla</t>
+  </si>
+  <si>
+    <t>vino</t>
+  </si>
+  <si>
+    <t>popsocket</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>impermeable</t>
+  </si>
+  <si>
+    <t>cuchara</t>
+  </si>
+  <si>
+    <t>dominós</t>
+  </si>
+  <si>
+    <t>guantes</t>
+  </si>
+  <si>
+    <t>tarro</t>
+  </si>
+  <si>
+    <t>abanico</t>
+  </si>
+  <si>
+    <t>crayones</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>noviembre</t>
+  </si>
+  <si>
+    <t>power_bank</t>
+  </si>
+  <si>
+    <t>iman</t>
+  </si>
+  <si>
+    <t>carpeta</t>
+  </si>
+  <si>
+    <t>cangurera</t>
+  </si>
+  <si>
+    <t>binoculares</t>
+  </si>
+  <si>
+    <t>flyer</t>
+  </si>
+  <si>
+    <t>pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,8 +1827,31 @@
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,8 +1882,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1511,11 +1921,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1550,6 +1975,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2773,6 +3255,559 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E6ED63-AD6D-714B-B15C-6D133AD9D942}">
+  <dimension ref="B3:D71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="23">
+        <v>10</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="15">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="15">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="15">
+        <v>13</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="15">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="15">
+        <v>16</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="15">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="15">
+        <v>18</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="23">
+        <v>19</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="15">
+        <v>21</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="15">
+        <v>22</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="15">
+        <v>23</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="15">
+        <v>24</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="15">
+        <v>25</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="15">
+        <v>26</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="15">
+        <v>27</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="15">
+        <v>28</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="15">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="15">
+        <v>30</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="15"/>
+      <c r="C41" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="15">
+        <v>2</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="26">
+        <v>3</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="26">
+        <v>4</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="25">
+        <v>5</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="15">
+        <v>6</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="15">
+        <v>7</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="26">
+        <v>8</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="25">
+        <v>9</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="15">
+        <v>10</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="15">
+        <v>11</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="25">
+        <v>12</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="15">
+        <v>13</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="15">
+        <v>14</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="15">
+        <v>15</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="15">
+        <v>16</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="25">
+        <v>17</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="25">
+        <v>18</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="25">
+        <v>19</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="15">
+        <v>20</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="25">
+        <v>21</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="15">
+        <v>22</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="15">
+        <v>23</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="28">
+        <v>24</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="15">
+        <v>25</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="28">
+        <v>26</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="25">
+        <v>27</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="15">
+        <v>28</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="28">
+        <v>29</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="15">
+        <v>30</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB22FCF-3455-43A6-8079-D641D82314F7}">
   <dimension ref="D3:G78"/>
@@ -6628,10 +7663,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3A11BC-38DB-4F42-B028-6CE82C26E685}">
-  <dimension ref="A3:F46"/>
+  <dimension ref="A3:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7000,7 +8035,7 @@
         <v>446</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7008,7 +8043,7 @@
         <v>447</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7016,7 +8051,7 @@
         <v>448</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7024,6 +8059,46 @@
         <v>450</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>447</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>450</v>
+      </c>
+      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -7033,10 +8108,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5D6F2-29DC-CC4D-84B2-D729A85EC091}">
+  <dimension ref="B2:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="19">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="19">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="19">
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="19">
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="19">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19">
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="19">
+      <c r="B11" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="19">
+      <c r="B12" s="16">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="19">
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="19">
+      <c r="B14" s="16">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="19">
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="19">
+      <c r="B16" s="16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="19">
+      <c r="B17" s="16">
+        <v>12</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="19">
+      <c r="B18" s="16">
+        <v>13</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="19">
+      <c r="B19" s="16">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="19">
+      <c r="B20" s="16">
+        <v>15</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="19">
+      <c r="B21" s="16">
+        <v>16</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="19">
+      <c r="B22" s="16">
+        <v>17</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="19">
+      <c r="B23" s="16">
+        <v>18</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="19">
+      <c r="B24" s="16">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="19">
+      <c r="B25" s="16">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="19">
+      <c r="B26" s="16">
+        <v>21</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="19">
+      <c r="B27" s="16">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="19">
+      <c r="B28" s="16">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="19">
+      <c r="B29" s="16">
+        <v>24</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="19">
+      <c r="B30" s="16">
+        <v>25</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="19">
+      <c r="B31" s="16">
+        <v>26</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="19">
+      <c r="B32" s="16">
+        <v>27</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="19">
+      <c r="B33" s="16">
+        <v>28</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="19">
+      <c r="B34" s="16">
+        <v>29</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="19">
+      <c r="B35" s="16">
+        <v>30</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD71BD4C-C4BD-D742-A82F-DFA8C378A710}">
+  <dimension ref="C5:F65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6">
+      <c r="C5" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1F568-5B92-C24C-BE1B-5E0D38D01E4D}">
   <dimension ref="C4:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Copia de lista_articulos.xlsx
+++ b/Copia de lista_articulos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosdavid/ironhackt/modulo 2/lab/Poryecto-Final-Marzo-23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sistemas\Documents\Ironhack\Modulo 2\LABS\Poryecto-Final-Marzo-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CDD02-30D5-F841-815F-DDECD940B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86BCF2-EB1B-4648-8401-9B9F1335385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="500" windowWidth="16920" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{660EE1AC-3D79-4295-B900-C51DF7AE590D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{660EE1AC-3D79-4295-B900-C51DF7AE590D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1851,7 +1851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,31 +1884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1975,62 +1969,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,111 +2046,215 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>75</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="Control 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s3073"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Control 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EEDCAE-3840-D58D-400A-116B830F9EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="13716000"/>
+          <a:ext cx="2392680" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>111</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>115</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5121" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5121"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="Control 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s5121"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Control 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD8623F-81E6-8912-C2A2-0367AFD9A4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1584960" y="20299680"/>
+          <a:ext cx="2392680" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2462,10 +2561,10 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3259,14 +3358,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E6ED63-AD6D-714B-B15C-6D133AD9D942}">
   <dimension ref="B3:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -3275,281 +3374,251 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="25">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="15">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="15">
+      <c r="B8" s="29">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="15">
+      <c r="B9" s="29">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="15">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="15">
+      <c r="B11" s="29">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="15">
+      <c r="B12" s="29">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="15">
+      <c r="B13" s="29">
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="15">
+      <c r="B14" s="29">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="23">
+      <c r="B15" s="30">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="15">
+      <c r="B16" s="29">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="15">
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="29">
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="15">
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="29">
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="15">
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="29">
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="15">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="29">
         <v>15</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="15">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="29">
         <v>16</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="15">
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="29">
         <v>17</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="15">
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="29">
         <v>18</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="23">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="30">
         <v>19</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="25">
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="28">
         <v>20</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="15">
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="29">
         <v>21</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="15">
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="29">
         <v>22</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="15">
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="29">
         <v>23</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="15">
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="29">
         <v>24</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="15">
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="29">
         <v>25</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="15">
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="29">
         <v>26</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="15">
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="29">
         <v>27</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="15">
+      <c r="B33" s="29">
         <v>28</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="15">
+      <c r="B34" s="29">
         <v>29</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="15">
+      <c r="B35" s="29">
         <v>30</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="D35" s="21"/>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
@@ -3557,249 +3626,249 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="15"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="15">
+      <c r="B42" s="31">
         <v>1</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="15">
+      <c r="B43" s="31">
         <v>2</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="15" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="26">
+      <c r="B44" s="31">
         <v>3</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="15" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="26">
+      <c r="B45" s="31">
         <v>4</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="25">
+      <c r="B46" s="32">
         <v>5</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="27" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="15">
+      <c r="B47" s="31">
         <v>6</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="15">
+      <c r="B48" s="31">
         <v>7</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="26">
+      <c r="B49" s="31">
         <v>8</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="25">
+      <c r="B50" s="32">
         <v>9</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="15">
+      <c r="B51" s="31">
         <v>10</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="15">
+      <c r="B52" s="31">
         <v>11</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="15" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="25">
+      <c r="B53" s="32">
         <v>12</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="27" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="15">
+      <c r="B54" s="31">
         <v>13</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="15" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="15">
+      <c r="B55" s="31">
         <v>14</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="15" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="15">
+      <c r="B56" s="31">
         <v>15</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="15">
+      <c r="B57" s="31">
         <v>16</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="25">
+      <c r="B58" s="32">
         <v>17</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="27" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="25">
+      <c r="B59" s="32">
         <v>18</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="27" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="25">
+      <c r="B60" s="32">
         <v>19</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="27" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="15">
+      <c r="B61" s="31">
         <v>20</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="25">
+      <c r="B62" s="32">
         <v>21</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="27" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="15">
+      <c r="B63" s="31">
         <v>22</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="15" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="15">
+      <c r="B64" s="31">
         <v>23</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="28">
+      <c r="B65" s="33">
         <v>24</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="20" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="15">
+      <c r="B66" s="31">
         <v>25</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="15" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="28">
+      <c r="B67" s="33">
         <v>26</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="25">
+      <c r="B68" s="32">
         <v>27</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="27" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="15">
+      <c r="B69" s="31">
         <v>28</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="28">
+      <c r="B70" s="33">
         <v>29</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="20" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="15">
+      <c r="B71" s="31">
         <v>30</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3816,10 +3885,10 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:6">
@@ -4479,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19598360-45F1-4E4B-B409-3CB72C12A38E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19598360-45F1-4E4B-B409-3CB72C12A38E}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:D77"/>
   <sheetViews>
@@ -4487,7 +4556,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="7" t="s">
@@ -5088,7 +5157,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5101,9 +5169,9 @@
       <selection activeCell="D214" sqref="D2:D214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="135.5" customWidth="1"/>
+    <col min="2" max="2" width="135.44140625" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6721,7 +6789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA8ABD-BE54-4C84-AED5-8C3CC6B2C127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA8ABD-BE54-4C84-AED5-8C3CC6B2C127}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:F113"/>
   <sheetViews>
@@ -6729,7 +6797,7 @@
       <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
@@ -7657,7 +7725,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7669,9 +7736,9 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -8111,13 +8178,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5D6F2-29DC-CC4D-84B2-D729A85EC091}">
   <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -8125,249 +8193,249 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="19">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="2:3" ht="18">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="19">
-      <c r="B6" s="16">
+    <row r="6" spans="2:3" ht="18">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="19">
-      <c r="B7" s="16">
+    <row r="7" spans="2:3" ht="18">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="25" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="19">
-      <c r="B8" s="16">
+    <row r="8" spans="2:3" ht="18">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="25" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="19">
-      <c r="B9" s="16">
+    <row r="9" spans="2:3" ht="18">
+      <c r="B9" s="24">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="25" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="19">
-      <c r="B10" s="16">
+    <row r="10" spans="2:3" ht="18">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="19">
-      <c r="B11" s="16">
+    <row r="11" spans="2:3" ht="18">
+      <c r="B11" s="24">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="25" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="19">
-      <c r="B12" s="16">
+    <row r="12" spans="2:3" ht="18">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="19">
-      <c r="B13" s="16">
+    <row r="13" spans="2:3" ht="18">
+      <c r="B13" s="24">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="25" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="19">
-      <c r="B14" s="16">
+    <row r="14" spans="2:3" ht="18">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="19">
-      <c r="B15" s="16">
+    <row r="15" spans="2:3" ht="18">
+      <c r="B15" s="24">
         <v>10</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="19">
-      <c r="B16" s="16">
+    <row r="16" spans="2:3" ht="18">
+      <c r="B16" s="24">
         <v>11</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="19">
-      <c r="B17" s="16">
+    <row r="17" spans="2:3" ht="18">
+      <c r="B17" s="24">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="19">
-      <c r="B18" s="16">
+    <row r="18" spans="2:3" ht="18">
+      <c r="B18" s="24">
         <v>13</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="25" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="19">
-      <c r="B19" s="16">
+    <row r="19" spans="2:3" ht="18">
+      <c r="B19" s="24">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="25" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="19">
-      <c r="B20" s="16">
+    <row r="20" spans="2:3" ht="18">
+      <c r="B20" s="24">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="25" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="19">
-      <c r="B21" s="16">
+    <row r="21" spans="2:3" ht="18">
+      <c r="B21" s="24">
         <v>16</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="25" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="19">
-      <c r="B22" s="16">
+    <row r="22" spans="2:3" ht="18">
+      <c r="B22" s="24">
         <v>17</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="19">
-      <c r="B23" s="16">
+    <row r="23" spans="2:3" ht="18">
+      <c r="B23" s="24">
         <v>18</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="19">
-      <c r="B24" s="16">
+    <row r="24" spans="2:3" ht="18">
+      <c r="B24" s="24">
         <v>19</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="25" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="19">
-      <c r="B25" s="16">
+    <row r="25" spans="2:3" ht="18">
+      <c r="B25" s="24">
         <v>20</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="25" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="19">
-      <c r="B26" s="16">
+    <row r="26" spans="2:3" ht="18">
+      <c r="B26" s="24">
         <v>21</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="25" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="19">
-      <c r="B27" s="16">
+    <row r="27" spans="2:3" ht="18">
+      <c r="B27" s="24">
         <v>22</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="25" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="19">
-      <c r="B28" s="16">
+    <row r="28" spans="2:3" ht="18">
+      <c r="B28" s="24">
         <v>23</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="25" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="19">
-      <c r="B29" s="16">
+    <row r="29" spans="2:3" ht="18">
+      <c r="B29" s="24">
         <v>24</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="19">
-      <c r="B30" s="16">
+    <row r="30" spans="2:3" ht="18">
+      <c r="B30" s="24">
         <v>25</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="19">
-      <c r="B31" s="16">
+    <row r="31" spans="2:3" ht="18">
+      <c r="B31" s="24">
         <v>26</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="19">
-      <c r="B32" s="16">
+    <row r="32" spans="2:3" ht="18">
+      <c r="B32" s="24">
         <v>27</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="19">
-      <c r="B33" s="16">
+    <row r="33" spans="2:3" ht="18">
+      <c r="B33" s="24">
         <v>28</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="19">
-      <c r="B34" s="16">
+    <row r="34" spans="2:3" ht="18">
+      <c r="B34" s="24">
         <v>29</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="25" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="19">
-      <c r="B35" s="16">
+    <row r="35" spans="2:3" ht="18">
+      <c r="B35" s="24">
         <v>30</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="25" t="s">
         <v>486</v>
       </c>
     </row>
@@ -8380,814 +8448,814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD71BD4C-C4BD-D742-A82F-DFA8C378A710}">
   <dimension ref="C5:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="21" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="48" spans="3:6">
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="21" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="16" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="18" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9204,7 +9272,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="52.6640625" customWidth="1"/>
   </cols>
